--- a/UTMP-1.xlsx
+++ b/UTMP-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msi1\Desktop\1st semeter 1st year\Subsurface inverstigation Lab CVE660\Lab\lab2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB0CFEA3-4A66-4C1A-84B9-5F8085FA3BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9964D611-9D12-4D81-A6B2-78E4DFD1E8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Depth, m</t>
   </si>
@@ -172,27 +172,6 @@
   </si>
   <si>
     <t>SC/Decomposed Granite</t>
-  </si>
-  <si>
-    <t>60/30"</t>
-  </si>
-  <si>
-    <t>100/5"</t>
-  </si>
-  <si>
-    <t>100/4"</t>
-  </si>
-  <si>
-    <t>50/0"</t>
-  </si>
-  <si>
-    <t>50/5"</t>
-  </si>
-  <si>
-    <t>100/6"</t>
-  </si>
-  <si>
-    <t>100/1"</t>
   </si>
 </sst>
 </file>
@@ -566,7 +545,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,8 +809,8 @@
       <c r="K11" t="s">
         <v>29</v>
       </c>
-      <c r="N11" t="s">
-        <v>47</v>
+      <c r="N11">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -856,8 +835,8 @@
       <c r="K12" t="s">
         <v>29</v>
       </c>
-      <c r="N12" t="s">
-        <v>48</v>
+      <c r="N12">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -873,8 +852,8 @@
       <c r="K13" t="s">
         <v>43</v>
       </c>
-      <c r="N13" t="s">
-        <v>49</v>
+      <c r="N13">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -890,7 +869,7 @@
       <c r="K14" t="s">
         <v>44</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14">
         <v>50</v>
       </c>
     </row>
@@ -935,8 +914,8 @@
       <c r="K17" t="s">
         <v>46</v>
       </c>
-      <c r="N17" t="s">
-        <v>51</v>
+      <c r="N17">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -970,8 +949,8 @@
       <c r="K18" t="s">
         <v>46</v>
       </c>
-      <c r="N18" t="s">
-        <v>48</v>
+      <c r="N18">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -987,8 +966,8 @@
       <c r="K19" t="s">
         <v>46</v>
       </c>
-      <c r="N19" t="s">
-        <v>52</v>
+      <c r="N19">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1004,8 +983,8 @@
       <c r="K20" t="s">
         <v>43</v>
       </c>
-      <c r="N20" t="s">
-        <v>53</v>
+      <c r="N20">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1021,7 +1000,7 @@
       <c r="K21" t="s">
         <v>43</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21">
         <v>50</v>
       </c>
     </row>
